--- a/data/Subset1_WithDialogActs/Martino Fraction Equivalence 3_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Martino Fraction Equivalence 3_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -509,12 +509,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1039,12 +1039,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1115,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1343,12 +1343,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2749,12 +2749,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2825,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2863,12 +2863,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3851,12 +3851,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4041,12 +4041,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4839,12 +4839,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5683,12 +5683,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
